--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>99.11651099999999</v>
+        <v>5.828753</v>
       </c>
       <c r="H2">
-        <v>297.349533</v>
+        <v>17.486259</v>
       </c>
       <c r="I2">
-        <v>0.799346251215574</v>
+        <v>0.1911291943607339</v>
       </c>
       <c r="J2">
-        <v>0.799346251215574</v>
+        <v>0.1911291943607339</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3213843333333333</v>
+        <v>0.3862596666666667</v>
       </c>
       <c r="N2">
-        <v>0.964153</v>
+        <v>1.158779</v>
       </c>
       <c r="O2">
-        <v>0.1066545648432073</v>
+        <v>0.05360826277999409</v>
       </c>
       <c r="P2">
-        <v>0.1066545648432073</v>
+        <v>0.05360826277999409</v>
       </c>
       <c r="Q2">
-        <v>31.85449381006099</v>
+        <v>2.251412190862333</v>
       </c>
       <c r="R2">
-        <v>286.690444290549</v>
+        <v>20.262709717761</v>
       </c>
       <c r="S2">
-        <v>0.08525392658244609</v>
+        <v>0.01024610407621879</v>
       </c>
       <c r="T2">
-        <v>0.08525392658244609</v>
+        <v>0.01024610407621879</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>99.11651099999999</v>
+        <v>5.828753</v>
       </c>
       <c r="H3">
-        <v>297.349533</v>
+        <v>17.486259</v>
       </c>
       <c r="I3">
-        <v>0.799346251215574</v>
+        <v>0.1911291943607339</v>
       </c>
       <c r="J3">
-        <v>0.799346251215574</v>
+        <v>0.1911291943607339</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.523944</v>
       </c>
       <c r="O3">
-        <v>0.3898185390200842</v>
+        <v>0.1630272174193556</v>
       </c>
       <c r="P3">
-        <v>0.3898185390200842</v>
+        <v>0.1630272174193557</v>
       </c>
       <c r="Q3">
-        <v>116.427011413128</v>
+        <v>6.846733053944001</v>
       </c>
       <c r="R3">
-        <v>1047.843102718152</v>
+        <v>61.62059748549601</v>
       </c>
       <c r="S3">
-        <v>0.3115999878200362</v>
+        <v>0.03115926072423365</v>
       </c>
       <c r="T3">
-        <v>0.3115999878200362</v>
+        <v>0.03115926072423365</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>99.11651099999999</v>
+        <v>5.828753</v>
       </c>
       <c r="H4">
-        <v>297.349533</v>
+        <v>17.486259</v>
       </c>
       <c r="I4">
-        <v>0.799346251215574</v>
+        <v>0.1911291943607339</v>
       </c>
       <c r="J4">
-        <v>0.799346251215574</v>
+        <v>0.1911291943607339</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.517287666666667</v>
+        <v>5.644318666666667</v>
       </c>
       <c r="N4">
-        <v>4.551863</v>
+        <v>16.932956</v>
       </c>
       <c r="O4">
-        <v>0.5035268961367085</v>
+        <v>0.7833645198006502</v>
       </c>
       <c r="P4">
-        <v>0.5035268961367085</v>
+        <v>0.7833645198006502</v>
       </c>
       <c r="Q4">
-        <v>150.388259703331</v>
+        <v>32.89933936128934</v>
       </c>
       <c r="R4">
-        <v>1353.494337329979</v>
+        <v>296.094054251604</v>
       </c>
       <c r="S4">
-        <v>0.4024923368130917</v>
+        <v>0.1497238295602815</v>
       </c>
       <c r="T4">
-        <v>0.4024923368130917</v>
+        <v>0.1497238295602815</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>70.74855599999999</v>
       </c>
       <c r="I5">
-        <v>0.1901889417714845</v>
+        <v>0.7732994524709527</v>
       </c>
       <c r="J5">
-        <v>0.1901889417714845</v>
+        <v>0.7732994524709526</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3213843333333333</v>
+        <v>0.3862596666666667</v>
       </c>
       <c r="N5">
-        <v>0.964153</v>
+        <v>1.158779</v>
       </c>
       <c r="O5">
-        <v>0.1066545648432073</v>
+        <v>0.05360826277999409</v>
       </c>
       <c r="P5">
-        <v>0.1066545648432073</v>
+        <v>0.05360826277999409</v>
       </c>
       <c r="Q5">
-        <v>7.579159168118666</v>
+        <v>9.109104552569333</v>
       </c>
       <c r="R5">
-        <v>68.21243251306799</v>
+        <v>81.981940973124</v>
       </c>
       <c r="S5">
-        <v>0.02028451882262777</v>
+        <v>0.04145524025568838</v>
       </c>
       <c r="T5">
-        <v>0.02028451882262777</v>
+        <v>0.04145524025568838</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>70.74855599999999</v>
       </c>
       <c r="I6">
-        <v>0.1901889417714845</v>
+        <v>0.7732994524709527</v>
       </c>
       <c r="J6">
-        <v>0.1901889417714845</v>
+        <v>0.7732994524709526</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>3.523944</v>
       </c>
       <c r="O6">
-        <v>0.3898185390200842</v>
+        <v>0.1630272174193556</v>
       </c>
       <c r="P6">
-        <v>0.3898185390200842</v>
+        <v>0.1630272174193557</v>
       </c>
       <c r="Q6">
         <v>27.701549936096</v>
@@ -818,10 +818,10 @@
         <v>249.313949424864</v>
       </c>
       <c r="S6">
-        <v>0.07413917541913595</v>
+        <v>0.1260688579682507</v>
       </c>
       <c r="T6">
-        <v>0.07413917541913595</v>
+        <v>0.1260688579682507</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>70.74855599999999</v>
       </c>
       <c r="I7">
-        <v>0.1901889417714845</v>
+        <v>0.7732994524709527</v>
       </c>
       <c r="J7">
-        <v>0.1901889417714845</v>
+        <v>0.7732994524709526</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.517287666666667</v>
+        <v>5.644318666666667</v>
       </c>
       <c r="N7">
-        <v>4.551863</v>
+        <v>16.932956</v>
       </c>
       <c r="O7">
-        <v>0.5035268961367085</v>
+        <v>0.7833645198006502</v>
       </c>
       <c r="P7">
-        <v>0.5035268961367085</v>
+        <v>0.7833645198006502</v>
       </c>
       <c r="Q7">
-        <v>35.78197048442533</v>
+        <v>133.1091317568373</v>
       </c>
       <c r="R7">
-        <v>322.037734359828</v>
+        <v>1197.982185811536</v>
       </c>
       <c r="S7">
-        <v>0.09576524752972079</v>
+        <v>0.6057753542470136</v>
       </c>
       <c r="T7">
-        <v>0.09576524752972079</v>
+        <v>0.6057753542470135</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.297604333333333</v>
+        <v>1.084798333333333</v>
       </c>
       <c r="H8">
-        <v>3.892813</v>
+        <v>3.254395</v>
       </c>
       <c r="I8">
-        <v>0.01046480701294141</v>
+        <v>0.03557135316831352</v>
       </c>
       <c r="J8">
-        <v>0.01046480701294141</v>
+        <v>0.03557135316831351</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3213843333333333</v>
+        <v>0.3862596666666667</v>
       </c>
       <c r="N8">
-        <v>0.964153</v>
+        <v>1.158779</v>
       </c>
       <c r="O8">
-        <v>0.1066545648432073</v>
+        <v>0.05360826277999409</v>
       </c>
       <c r="P8">
-        <v>0.1066545648432073</v>
+        <v>0.05360826277999409</v>
       </c>
       <c r="Q8">
-        <v>0.4170297035987778</v>
+        <v>0.4190138426338889</v>
       </c>
       <c r="R8">
-        <v>3.753267332389</v>
+        <v>3.771124583705</v>
       </c>
       <c r="S8">
-        <v>0.001116119438133409</v>
+        <v>0.001906918448086926</v>
       </c>
       <c r="T8">
-        <v>0.00111611943813341</v>
+        <v>0.001906918448086926</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.297604333333333</v>
+        <v>1.084798333333333</v>
       </c>
       <c r="H9">
-        <v>3.892813</v>
+        <v>3.254395</v>
       </c>
       <c r="I9">
-        <v>0.01046480701294141</v>
+        <v>0.03557135316831352</v>
       </c>
       <c r="J9">
-        <v>0.01046480701294141</v>
+        <v>0.03557135316831351</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.523944</v>
       </c>
       <c r="O9">
-        <v>0.3898185390200842</v>
+        <v>0.1630272174193556</v>
       </c>
       <c r="P9">
-        <v>0.3898185390200842</v>
+        <v>0.1630272174193557</v>
       </c>
       <c r="Q9">
-        <v>1.524228334941333</v>
+        <v>1.274256192653334</v>
       </c>
       <c r="R9">
-        <v>13.718055014472</v>
+        <v>11.46830573388</v>
       </c>
       <c r="S9">
-        <v>0.004079375780911951</v>
+        <v>0.005799098726871332</v>
       </c>
       <c r="T9">
-        <v>0.004079375780911951</v>
+        <v>0.005799098726871332</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.297604333333333</v>
+        <v>1.084798333333333</v>
       </c>
       <c r="H10">
-        <v>3.892813</v>
+        <v>3.254395</v>
       </c>
       <c r="I10">
-        <v>0.01046480701294141</v>
+        <v>0.03557135316831352</v>
       </c>
       <c r="J10">
-        <v>0.01046480701294141</v>
+        <v>0.03557135316831351</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.517287666666667</v>
+        <v>5.644318666666667</v>
       </c>
       <c r="N10">
-        <v>4.551863</v>
+        <v>16.932956</v>
       </c>
       <c r="O10">
-        <v>0.5035268961367085</v>
+        <v>0.7833645198006502</v>
       </c>
       <c r="P10">
-        <v>0.5035268961367085</v>
+        <v>0.7833645198006502</v>
       </c>
       <c r="Q10">
-        <v>1.968839051179889</v>
+        <v>6.122947482402222</v>
       </c>
       <c r="R10">
-        <v>17.719551460619</v>
+        <v>55.10652734162001</v>
       </c>
       <c r="S10">
-        <v>0.005269311793896047</v>
+        <v>0.02786533599335526</v>
       </c>
       <c r="T10">
-        <v>0.005269311793896048</v>
+        <v>0.02786533599335525</v>
       </c>
     </row>
   </sheetData>
